--- a/data-raw/metadata/butte_trap_metadata.xlsx
+++ b/data-raw/metadata/butte_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF946D35-E47B-664E-8925-909D08CC241C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77A79B-2142-BE45-A2E3-E60A34B1B058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="-20840" windowWidth="34660" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6760" yWindow="-19600" windowWidth="34660" windowHeight="18320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -70,9 +70,6 @@
     <t>projectDescriptionID</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table</t>
-  </si>
-  <si>
     <t>nominal</t>
   </si>
   <si>
@@ -97,13 +94,7 @@
     <t>siteName</t>
   </si>
   <si>
-    <t>Name of the sampling site</t>
-  </si>
-  <si>
     <t>subSiteName</t>
-  </si>
-  <si>
-    <t>Position of trap within the site</t>
   </si>
   <si>
     <t>visitTime</t>
@@ -121,19 +112,10 @@
     <t>visitType</t>
   </si>
   <si>
-    <t>Work that was done during visit to trap (luVisitType)</t>
-  </si>
-  <si>
     <t>fishProcessed</t>
   </si>
   <si>
-    <t>Describing if fish processed during trap visit</t>
-  </si>
-  <si>
     <t>trapFunctioning</t>
-  </si>
-  <si>
-    <t>Code for description of how well trap is functioning when visit to trap began</t>
   </si>
   <si>
     <t>counterAtEnd</t>
@@ -211,333 +193,31 @@
     <t>attribute_name</t>
   </si>
   <si>
-    <t>Start trap and begin trapping [Used when trap had not been operating, or when it is moved or reconfigured. Defines the
-beginning of a sampling period. Fish are never processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>visitTypeID</t>
-  </si>
-  <si>
-    <t>Continue trapping in same position and configuration without interruption [Used when there is no break in trap operations.
-Defines the break between two sampling periods. Fish are usually processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>Unplanned restart of trap after malfunction (in same position and configuration) [Used when the trap had stopped
-operating. Defines the break between two sampling periods. Fish are usually processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>End trapping in current position or configuration [Used when trap is moved or stopped. Defines the end of a sampling
-period. Fish are usually processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>"Drive by" [Trap is scanned to ensure it is functioning, but fish are not processed and trap is not adjusted. Environmental
-measures may be taken. If a "drive by" results in fish being sampled or trap being serviced, then use an alternative code as
-appropriate. Does not define the beginning or end of a sampling period.]</t>
-  </si>
-  <si>
-    <t>Service / adjust / clean trap [Adjustment is made to trap during a sampling period, such as returning it to desired sampling
-position or removing debris. Does not define the beginning or end of a sampling period. Fish are not processed during this
-type of visit.]</t>
-  </si>
-  <si>
-    <t>Not recorded</t>
-  </si>
-  <si>
-    <t>Not applicable (n/a)</t>
-  </si>
-  <si>
-    <t>No fish were caught [If no fish were caught, use this code and enter a record with n=0 for each targeted taxon.]</t>
-  </si>
-  <si>
-    <t>fishProcessedID</t>
-  </si>
-  <si>
-    <t>Processed fish [At least one record in CatchRaw should exist for each targeted taxon.]</t>
-  </si>
-  <si>
-    <t>No catch data; fish left in live box [No records in CatchRaw should exist.]</t>
-  </si>
-  <si>
-    <t>No catch data; fish released [No records in CatchRaw should exist.]</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>inThalwegID</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Trap functioning normally</t>
-  </si>
-  <si>
-    <t>trapFunctioningID</t>
-  </si>
-  <si>
-    <t>Trap functioning, but not normally</t>
-  </si>
-  <si>
-    <t>Trap stopped functioning</t>
-  </si>
-  <si>
-    <t>Trap not in service</t>
-  </si>
-  <si>
-    <t>halfConeID</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>debrisVolumeCatID</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Heavy</t>
-  </si>
-  <si>
-    <t>Very Heavy</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>See comments</t>
-  </si>
-  <si>
-    <t>Not yet assigned</t>
-  </si>
-  <si>
-    <t>includeCatchID</t>
-  </si>
-  <si>
-    <t>Eye Riffle</t>
-  </si>
-  <si>
-    <t>siteID</t>
-  </si>
-  <si>
-    <t>Eye riffle_release site</t>
-  </si>
-  <si>
-    <t>Gateway Riffle</t>
-  </si>
-  <si>
-    <t>Gateway_release site</t>
-  </si>
-  <si>
-    <t>Herringer Riffle</t>
-  </si>
-  <si>
-    <t>Herringer_release site</t>
-  </si>
-  <si>
-    <t>Live Oak</t>
-  </si>
-  <si>
-    <t>Live Oak_release site</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>Reserved # 1 Feather River Program</t>
-  </si>
-  <si>
-    <t>Reserved # 2 Feather River Program</t>
-  </si>
-  <si>
-    <t>Reserved # 3 Feather River Program</t>
-  </si>
-  <si>
-    <t>Reserved # 4 Feather River Program</t>
-  </si>
-  <si>
-    <t>Shawn_release site</t>
-  </si>
-  <si>
-    <t>Shawn's Beach</t>
-  </si>
-  <si>
-    <t>Steep Riffle</t>
-  </si>
-  <si>
-    <t>Steep Riffle_release site</t>
-  </si>
-  <si>
-    <t>Sunset Pumps</t>
-  </si>
-  <si>
-    <t>Sunset_release site</t>
-  </si>
-  <si>
-    <t>Test Release Site</t>
-  </si>
-  <si>
-    <t>#Steep Riffle_RST</t>
-  </si>
-  <si>
-    <t>trapPositionID</t>
-  </si>
-  <si>
-    <t>Below Weir Riffle</t>
-  </si>
-  <si>
-    <t>Eye Pool Left &amp; Right RM 60.5</t>
-  </si>
-  <si>
-    <t>Eye Pool Left RM 60.5</t>
-  </si>
-  <si>
-    <t>Eye Pool Right RM60.5</t>
-  </si>
-  <si>
-    <t>Eye Pool RM 60.5</t>
-  </si>
-  <si>
-    <t>Eye riffle_north</t>
-  </si>
-  <si>
-    <t>Eye riffle_Side Channel</t>
-  </si>
-  <si>
-    <t>Gateway Main 400' Up River</t>
-  </si>
-  <si>
-    <t>Gateway release boxes</t>
-  </si>
-  <si>
-    <t>Gateway release_RL &amp; RR</t>
-  </si>
-  <si>
-    <t>Gateway_main1</t>
-  </si>
-  <si>
-    <t>Gateway_Rootball</t>
-  </si>
-  <si>
-    <t>Gateway_Rootball_River_Left</t>
-  </si>
-  <si>
-    <t>Gray's Beach</t>
-  </si>
-  <si>
-    <t>half mile above trap RM</t>
-  </si>
-  <si>
-    <t>Herringer Release boxes</t>
-  </si>
-  <si>
-    <t>Herringer release_ RL &amp; RR</t>
-  </si>
-  <si>
-    <t>Herringer_east</t>
-  </si>
-  <si>
-    <t>Herringer_Upper_west</t>
-  </si>
-  <si>
-    <t>Herringer_west</t>
-  </si>
-  <si>
-    <t>Live Oak_west</t>
-  </si>
-  <si>
-    <t>Lower Robinson RM 61.4</t>
-  </si>
-  <si>
-    <t>next to Gateway release boxes</t>
-  </si>
-  <si>
-    <t>next to Herringer Release boxes</t>
-  </si>
-  <si>
-    <t>Release at river left</t>
-  </si>
-  <si>
-    <t>Release river left and right</t>
-  </si>
-  <si>
-    <t>Release river middle</t>
-  </si>
-  <si>
-    <t>Release river right</t>
-  </si>
-  <si>
-    <t>release_100m above falls</t>
-  </si>
-  <si>
-    <t>release_below falls</t>
-  </si>
-  <si>
-    <t>Robinson Main RM 61.6</t>
-  </si>
-  <si>
-    <t>Robinson Side &amp; Main RM 61.6</t>
-  </si>
-  <si>
-    <t>Robinson Side RM 61.6</t>
-  </si>
-  <si>
-    <t>Shawns_east</t>
-  </si>
-  <si>
-    <t>Shawns_west</t>
-  </si>
-  <si>
-    <t>Steep Pool Left Middle Right RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool Left RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool Right &amp; Left RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool Right RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep release_RR &amp; RL</t>
-  </si>
-  <si>
-    <t>Steep Riffle_10' ext</t>
-  </si>
-  <si>
-    <t>Steep Riffle_100' below</t>
-  </si>
-  <si>
-    <t>Steep Riffle_Opposite RST</t>
-  </si>
-  <si>
-    <t>Steep Side Channel</t>
-  </si>
-  <si>
-    <t>Sunset East bank</t>
-  </si>
-  <si>
-    <t>Sunset West bank</t>
-  </si>
-  <si>
-    <t>Butte River RST program</t>
-  </si>
-  <si>
     <t>cubicFeetPerSecond</t>
   </si>
   <si>
     <t>feetPerSecond</t>
+  </si>
+  <si>
+    <t>Foreign key to the CAMP ProjectDescription table.  For Butte Creek data projectDescriptionID = 11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the sampling site. Levels = c("Parrott-Phelan canal trap box", "Okie RST", "Parrot-Phelan RST"). </t>
+  </si>
+  <si>
+    <t>Position of trap within the site. Levels = c("canal trap box", "Okie RST", "PP RST")</t>
+  </si>
+  <si>
+    <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", "No catch data; fish released")</t>
+  </si>
+  <si>
+    <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap functioning, but not normally", "Trap not in service", "Trap stopped functioning", "Not recorded")</t>
+  </si>
+  <si>
+    <t>Work that was done during visit to trap. Levels = c("Continue trapping", "Start trap &amp; begin trapping", "End trapping", "Unplanned restart",  "Not applicable (n/a)", "Service/adjust/clean trap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butte Creek RST </t>
   </si>
 </sst>
 </file>
@@ -874,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,16 +634,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -989,19 +669,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1027,19 +707,19 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1065,19 +745,19 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1103,26 +783,26 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="18">
@@ -1147,19 +827,19 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1185,19 +865,19 @@
     </row>
     <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1223,19 +903,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1261,28 +941,28 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -1309,28 +989,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1357,28 +1037,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1405,19 +1085,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1443,28 +1123,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1491,28 +1171,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1539,28 +1219,28 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
@@ -1587,28 +1267,28 @@
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
@@ -29297,8 +28977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29311,13 +28991,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -29345,13 +29025,13 @@
     </row>
     <row r="2" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -29378,15 +29058,9 @@
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -29412,15 +29086,9 @@
       <c r="Z3" s="16"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -29446,15 +29114,9 @@
       <c r="Z4" s="16"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -29480,15 +29142,9 @@
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -29514,15 +29170,9 @@
       <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -29548,15 +29198,9 @@
       <c r="Z7" s="16"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>251</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -29582,15 +29226,9 @@
       <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>252</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -29616,15 +29254,9 @@
       <c r="Z9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>0</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -29650,15 +29282,9 @@
       <c r="Z10" s="16"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -29684,15 +29310,9 @@
       <c r="Z11" s="16"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>2</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -29718,15 +29338,9 @@
       <c r="Z12" s="16"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -29752,15 +29366,9 @@
       <c r="Z13" s="16"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>251</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -29786,15 +29394,9 @@
       <c r="Z14" s="16"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>252</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -29820,15 +29422,9 @@
       <c r="Z15" s="16"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>1</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -29854,15 +29450,9 @@
       <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -29888,15 +29478,9 @@
       <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>251</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -29922,15 +29506,9 @@
       <c r="Z18" s="16"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>1</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -29956,15 +29534,9 @@
       <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>2</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -29990,15 +29562,9 @@
       <c r="Z20" s="16"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>3</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -30024,15 +29590,9 @@
       <c r="Z21" s="16"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>4</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -30058,15 +29618,9 @@
       <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -30092,15 +29646,9 @@
       <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>2</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -30126,15 +29674,9 @@
       <c r="Z24" s="16"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>0</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -30160,15 +29702,9 @@
       <c r="Z25" s="16"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
-        <v>1</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -30194,15 +29730,9 @@
       <c r="Z26" s="16"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
-        <v>2</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -30228,15 +29758,9 @@
       <c r="Z27" s="16"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
-        <v>3</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -30262,15 +29786,9 @@
       <c r="Z28" s="16"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
-        <v>4</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -30296,15 +29814,9 @@
       <c r="Z29" s="16"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
-        <v>250</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -30330,15 +29842,9 @@
       <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
-        <v>251</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -30364,15 +29870,9 @@
       <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
-        <v>252</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -30398,15 +29898,9 @@
       <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
-        <v>253</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -30432,15 +29926,9 @@
       <c r="Z33" s="16"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>254</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -30466,15 +29954,9 @@
       <c r="Z34" s="16"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>255</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -30500,15 +29982,9 @@
       <c r="Z35" s="16"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>1</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -30534,15 +30010,9 @@
       <c r="Z36" s="16"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
-        <v>2</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -30568,15 +30038,9 @@
       <c r="Z37" s="16"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
-        <v>3000</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -30602,15 +30066,9 @@
       <c r="Z38" s="16"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
-        <v>44000</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -30636,15 +30094,9 @@
       <c r="Z39" s="16"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>52000</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -30670,15 +30122,9 @@
       <c r="Z40" s="16"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>51000</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -30704,15 +30150,9 @@
       <c r="Z41" s="16"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
-        <v>5000</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -30738,15 +30178,9 @@
       <c r="Z42" s="16"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
-        <v>46000</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -30772,15 +30206,9 @@
       <c r="Z43" s="16"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
-        <v>4000</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
@@ -30806,15 +30234,9 @@
       <c r="Z44" s="16"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>45000</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -30840,15 +30262,9 @@
       <c r="Z45" s="16"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>252</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -30874,15 +30290,9 @@
       <c r="Z46" s="16"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>251</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -30908,15 +30318,9 @@
       <c r="Z47" s="16"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>255</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -30942,15 +30346,9 @@
       <c r="Z48" s="16"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>53000</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -30976,15 +30374,9 @@
       <c r="Z49" s="16"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>54000</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -31010,15 +30402,9 @@
       <c r="Z50" s="16"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
-        <v>55000</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -31044,15 +30430,9 @@
       <c r="Z51" s="16"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
-        <v>56000</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -31078,15 +30458,9 @@
       <c r="Z52" s="16"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
-        <v>50000</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -31112,15 +30486,9 @@
       <c r="Z53" s="16"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
-        <v>7000</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -31146,15 +30514,9 @@
       <c r="Z54" s="16"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
-        <v>2000</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -31180,15 +30542,9 @@
       <c r="Z55" s="16"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
-        <v>43000</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
@@ -31214,15 +30570,9 @@
       <c r="Z56" s="16"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
-        <v>6000</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -31248,15 +30598,9 @@
       <c r="Z57" s="16"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
-        <v>47000</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -31282,15 +30626,9 @@
       <c r="Z58" s="16"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
-        <v>90000</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -31316,15 +30654,9 @@
       <c r="Z59" s="16"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
-        <v>253</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -31350,15 +30682,9 @@
       <c r="Z60" s="16"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
-        <v>2001</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -31384,15 +30710,9 @@
       <c r="Z61" s="16"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
-        <v>44018</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
@@ -31418,15 +30738,9 @@
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
-        <v>44007</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -31452,15 +30766,9 @@
       <c r="Z63" s="16"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16">
-        <v>44017</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -31486,15 +30794,9 @@
       <c r="Z64" s="16"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
-        <v>44016</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
@@ -31520,15 +30822,9 @@
       <c r="Z65" s="16"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16">
-        <v>44013</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -31554,15 +30850,9 @@
       <c r="Z66" s="16"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16">
-        <v>3001</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -31588,15 +30878,9 @@
       <c r="Z67" s="16"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
-        <v>3002</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -31622,15 +30906,9 @@
       <c r="Z68" s="16"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16">
-        <v>52003</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -31656,15 +30934,9 @@
       <c r="Z69" s="16"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16">
-        <v>51002</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
@@ -31690,15 +30962,9 @@
       <c r="Z70" s="16"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
-        <v>51003</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
@@ -31724,15 +30990,9 @@
       <c r="Z71" s="16"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
-        <v>52001</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
@@ -31758,15 +31018,9 @@
       <c r="Z72" s="16"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
-        <v>52002</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -31792,15 +31046,9 @@
       <c r="Z73" s="16"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16">
-        <v>52004</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
@@ -31826,15 +31074,9 @@
       <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
-        <v>90001</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -31860,15 +31102,9 @@
       <c r="Z75" s="16"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16">
-        <v>46003</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
@@ -31894,15 +31130,9 @@
       <c r="Z76" s="16"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16">
-        <v>46001</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
@@ -31928,15 +31158,9 @@
       <c r="Z77" s="16"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16">
-        <v>46004</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
@@ -31962,15 +31186,9 @@
       <c r="Z78" s="16"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16">
-        <v>5001</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
@@ -31996,15 +31214,9 @@
       <c r="Z79" s="16"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16">
-        <v>5003</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
@@ -32030,15 +31242,9 @@
       <c r="Z80" s="16"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16">
-        <v>5002</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
@@ -32064,15 +31270,9 @@
       <c r="Z81" s="16"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16">
-        <v>4001</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
@@ -32098,15 +31298,9 @@
       <c r="Z82" s="16"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16">
-        <v>4002</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
@@ -32132,15 +31326,9 @@
       <c r="Z83" s="16"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16">
-        <v>44010</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
@@ -32166,15 +31354,9 @@
       <c r="Z84" s="16"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
-        <v>51001</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
@@ -32200,15 +31382,9 @@
       <c r="Z85" s="16"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16">
-        <v>46002</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
@@ -32234,15 +31410,9 @@
       <c r="Z86" s="16"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="16">
-        <v>43000</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
@@ -32268,15 +31438,9 @@
       <c r="Z87" s="16"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16">
-        <v>44000</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
@@ -32302,15 +31466,9 @@
       <c r="Z88" s="16"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16">
-        <v>45000</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
@@ -32336,15 +31494,9 @@
       <c r="Z89" s="16"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16">
-        <v>46000</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
@@ -32370,15 +31522,9 @@
       <c r="Z90" s="16"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16">
-        <v>47000</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
@@ -32404,15 +31550,9 @@
       <c r="Z91" s="16"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16">
-        <v>50000</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
@@ -32438,15 +31578,9 @@
       <c r="Z92" s="16"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16">
-        <v>51000</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
@@ -32472,15 +31606,9 @@
       <c r="Z93" s="16"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16">
-        <v>52000</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
@@ -32506,15 +31634,9 @@
       <c r="Z94" s="16"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16">
-        <v>53000</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
@@ -32540,15 +31662,9 @@
       <c r="Z95" s="16"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="16">
-        <v>54000</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
@@ -32574,15 +31690,9 @@
       <c r="Z96" s="16"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="16">
-        <v>55000</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
@@ -32608,15 +31718,9 @@
       <c r="Z97" s="16"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="16">
-        <v>56000</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
@@ -32642,15 +31746,9 @@
       <c r="Z98" s="16"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16">
-        <v>90000</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
@@ -32676,15 +31774,9 @@
       <c r="Z99" s="16"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16">
-        <v>44001</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
@@ -32710,15 +31802,9 @@
       <c r="Z100" s="16"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16">
-        <v>44003</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
@@ -32744,15 +31830,9 @@
       <c r="Z101" s="16"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="16">
-        <v>44002</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
@@ -32778,15 +31858,9 @@
       <c r="Z102" s="16"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="16">
-        <v>44004</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
@@ -32812,15 +31886,9 @@
       <c r="Z103" s="16"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="16">
-        <v>47002</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
@@ -32846,15 +31914,9 @@
       <c r="Z104" s="16"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="16">
-        <v>47001</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
@@ -32880,15 +31942,9 @@
       <c r="Z105" s="16"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="16">
-        <v>44009</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
@@ -32914,15 +31970,9 @@
       <c r="Z106" s="16"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="16">
-        <v>44006</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
@@ -32948,15 +31998,9 @@
       <c r="Z107" s="16"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="16">
-        <v>44008</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
@@ -32982,15 +32026,9 @@
       <c r="Z108" s="16"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="16">
-        <v>7002</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
@@ -33016,15 +32054,9 @@
       <c r="Z109" s="16"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="16">
-        <v>7003</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
@@ -33050,15 +32082,9 @@
       <c r="Z110" s="16"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="16">
-        <v>44012</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
@@ -33084,15 +32110,9 @@
       <c r="Z111" s="16"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="16">
-        <v>44014</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
@@ -33118,15 +32138,9 @@
       <c r="Z112" s="16"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="16">
-        <v>44011</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
@@ -33152,15 +32166,9 @@
       <c r="Z113" s="16"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="16">
-        <v>44015</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
@@ -33186,15 +32194,9 @@
       <c r="Z114" s="16"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16">
-        <v>44005</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
@@ -33220,15 +32222,9 @@
       <c r="Z115" s="16"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="16">
-        <v>43001</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
@@ -33254,15 +32250,9 @@
       <c r="Z116" s="16"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="16">
-        <v>2004</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
@@ -33288,15 +32278,9 @@
       <c r="Z117" s="16"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16">
-        <v>2003</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
@@ -33322,15 +32306,9 @@
       <c r="Z118" s="16"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="16">
-        <v>2002</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
@@ -33356,15 +32334,9 @@
       <c r="Z119" s="16"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16">
-        <v>2005</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
@@ -33390,15 +32362,9 @@
       <c r="Z120" s="16"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16">
-        <v>6002</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
@@ -33424,15 +32390,9 @@
       <c r="Z121" s="16"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16">
-        <v>6003</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
@@ -33458,15 +32418,9 @@
       <c r="Z122" s="16"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="16">
-        <v>11</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>

--- a/data-raw/metadata/butte_trap_metadata.xlsx
+++ b/data-raw/metadata/butte_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77A79B-2142-BE45-A2E3-E60A34B1B058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D39CC1-DD0E-004F-BF60-4A95CC0C1A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6760" yWindow="-19600" windowWidth="34660" windowHeight="18320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="780" windowWidth="17460" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -202,12 +202,6 @@
     <t>Foreign key to the CAMP ProjectDescription table.  For Butte Creek data projectDescriptionID = 11.</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of the sampling site. Levels = c("Parrott-Phelan canal trap box", "Okie RST", "Parrot-Phelan RST"). </t>
-  </si>
-  <si>
-    <t>Position of trap within the site. Levels = c("canal trap box", "Okie RST", "PP RST")</t>
-  </si>
-  <si>
     <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", "No catch data; fish released")</t>
   </si>
   <si>
@@ -218,6 +212,28 @@
   </si>
   <si>
     <t xml:space="preserve">Butte Creek RST </t>
+  </si>
+  <si>
+    <t>counterAtStart</t>
+  </si>
+  <si>
+    <t>Reading on the rotation counter at the beginning of trap visit</t>
+  </si>
+  <si>
+    <t>dissolvedOxygen</t>
+  </si>
+  <si>
+    <t>Level of dissolved oxygen measured</t>
+  </si>
+  <si>
+    <t>milligramPerLiter</t>
+  </si>
+  <si>
+    <t>Name of the sampling site. Levels = c("Parrott-Phelan canal trap box", "Parrot-Phelan RST", "Coleman National Fish Hatchery"
+)</t>
+  </si>
+  <si>
+    <t>Position of trap within the site. Levels =c("canal trap box", "PP RST", "n/a")</t>
   </si>
 </sst>
 </file>
@@ -552,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,7 +726,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -748,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -830,7 +846,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -868,7 +884,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -906,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -941,10 +957,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -971,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>306865</v>
+        <v>427736</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -989,10 +1005,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1007,7 +1023,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>35</v>
@@ -1019,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>6</v>
+        <v>306865</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1037,7 +1053,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -1067,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1085,28 +1101,38 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>6.5</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1123,38 +1149,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1624</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1171,10 +1187,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1189,7 +1205,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1198,10 +1214,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M15" s="3">
-        <v>3.6</v>
+        <v>1704</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1219,10 +1235,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1237,7 +1253,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1246,10 +1262,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M16" s="3">
-        <v>72.3</v>
+        <v>3.6</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1265,12 +1281,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>49</v>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>50</v>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1284,8 +1300,8 @@
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>51</v>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1297,36 +1313,56 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>139</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -1341,33 +1377,53 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
@@ -1958,7 +2014,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -1986,7 +2042,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2014,7 +2070,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2042,7 +2098,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2070,7 +2126,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -3022,7 +3078,7 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -28949,22 +29005,50 @@
       <c r="Y1004" s="1"/>
       <c r="Z1004" s="1"/>
     </row>
+    <row r="1005" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="3"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="3"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="3"/>
+      <c r="M1005" s="3"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E20:E1005 E1:E18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F17 F19:F1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F18 F20:F1005" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C17 C19:C49 C61:C1004" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C18 C20:C50 C62:C1005" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H17 H19:H1004" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H18 H20:H1005" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28977,7 +29061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -29028,7 +29112,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>

--- a/data-raw/metadata/butte_trap_metadata.xlsx
+++ b/data-raw/metadata/butte_trap_metadata.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D39CC1-DD0E-004F-BF60-4A95CC0C1A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40263239-C1A5-9045-8348-E243E8FDA436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="780" windowWidth="17460" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
     <sheet name="code_definitions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhfdyvt+L5E4+zkD/jlu7JX3vU/1g=="/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -151,13 +162,7 @@
     <t>includeCatch</t>
   </si>
   <si>
-    <t>Code for whether this record is considered of high enough quality to include in analysis</t>
-  </si>
-  <si>
     <t>discharge</t>
-  </si>
-  <si>
-    <t>Dischage measured at trap</t>
   </si>
   <si>
     <t>waterVel</t>
@@ -199,18 +204,6 @@
     <t>feetPerSecond</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table.  For Butte Creek data projectDescriptionID = 11.</t>
-  </si>
-  <si>
-    <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", "No catch data; fish released")</t>
-  </si>
-  <si>
-    <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap functioning, but not normally", "Trap not in service", "Trap stopped functioning", "Not recorded")</t>
-  </si>
-  <si>
-    <t>Work that was done during visit to trap. Levels = c("Continue trapping", "Start trap &amp; begin trapping", "End trapping", "Unplanned restart",  "Not applicable (n/a)", "Service/adjust/clean trap")</t>
-  </si>
-  <si>
     <t xml:space="preserve">Butte Creek RST </t>
   </si>
   <si>
@@ -223,17 +216,44 @@
     <t>dissolvedOxygen</t>
   </si>
   <si>
-    <t>Level of dissolved oxygen measured</t>
-  </si>
-  <si>
     <t>milligramPerLiter</t>
   </si>
   <si>
+    <t>Position of trap within the site. Levels =c("canal trap box", "PP RST", "n/a")</t>
+  </si>
+  <si>
+    <t>Foreign key to the CAMP ProjectDescription table.  All data associated with this package will have a ProjectDescriptionID = 11.</t>
+  </si>
+  <si>
     <t>Name of the sampling site. Levels = c("Parrott-Phelan canal trap box", "Parrot-Phelan RST", "Coleman National Fish Hatchery"
+)
 )</t>
   </si>
   <si>
-    <t>Position of trap within the site. Levels =c("canal trap box", "PP RST", "n/a")</t>
+    <t>Work that was done during visit to trap. Levels = c("Continue trapping", "Start trap &amp; begin trapping", "End trapping", 
+"Unplanned restart", "Not applicable (n/a)", "Service/adjust/clean trap", 
+NA)</t>
+  </si>
+  <si>
+    <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", 
+"No catch data; fish released", NA)</t>
+  </si>
+  <si>
+    <t>Description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap functioning, but not normally", 
+"Trap not in service", "Trap stopped functioning", "Not recorded", 
+NA)</t>
+  </si>
+  <si>
+    <t>Number of revolutions per minute after cleaning the trap</t>
+  </si>
+  <si>
+    <t>Code for whether this record is considered of high enough quality to include in analysis. Levels = c("Yes", "No")</t>
+  </si>
+  <si>
+    <t>Discharge measured at trap</t>
+  </si>
+  <si>
+    <t>Level of dissolved oxygen measured at trap</t>
   </si>
 </sst>
 </file>
@@ -309,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,6 +373,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +592,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -650,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -726,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -764,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -846,7 +867,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -879,12 +900,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
+      <c r="B8" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -922,7 +943,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -957,10 +978,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1104,7 +1125,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1152,7 +1173,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1187,10 +1208,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1205,7 +1226,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1235,10 +1256,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1253,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1283,10 +1304,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1301,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1331,10 +1352,10 @@
     </row>
     <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1349,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>35</v>
@@ -1379,10 +1400,10 @@
     </row>
     <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>32</v>
@@ -1397,7 +1418,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>35</v>
@@ -29062,7 +29083,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29075,13 +29096,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -29107,12 +29128,12 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>

--- a/data-raw/metadata/butte_trap_metadata.xlsx
+++ b/data-raw/metadata/butte_trap_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-butte-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40263239-C1A5-9045-8348-E243E8FDA436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C406B4CB-ED95-1143-8C50-F1066AB8DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -219,29 +219,7 @@
     <t>milligramPerLiter</t>
   </si>
   <si>
-    <t>Position of trap within the site. Levels =c("canal trap box", "PP RST", "n/a")</t>
-  </si>
-  <si>
     <t>Foreign key to the CAMP ProjectDescription table.  All data associated with this package will have a ProjectDescriptionID = 11.</t>
-  </si>
-  <si>
-    <t>Name of the sampling site. Levels = c("Parrott-Phelan canal trap box", "Parrot-Phelan RST", "Coleman National Fish Hatchery"
-)
-)</t>
-  </si>
-  <si>
-    <t>Work that was done during visit to trap. Levels = c("Continue trapping", "Start trap &amp; begin trapping", "End trapping", 
-"Unplanned restart", "Not applicable (n/a)", "Service/adjust/clean trap", 
-NA)</t>
-  </si>
-  <si>
-    <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", 
-"No catch data; fish released", NA)</t>
-  </si>
-  <si>
-    <t>Description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap functioning, but not normally", 
-"Trap not in service", "Trap stopped functioning", "Not recorded", 
-NA)</t>
   </si>
   <si>
     <t>Number of revolutions per minute after cleaning the trap</t>
@@ -254,6 +232,21 @@
   </si>
   <si>
     <t>Level of dissolved oxygen measured at trap</t>
+  </si>
+  <si>
+    <t>Name of the sampling site. Levels = c("parrot-phelan", "coleman national fish hatchery", "adams dam")</t>
+  </si>
+  <si>
+    <t>Position of trap within the site. Levels = c("canal trap box", "pp rst", "n/a", NA, "adams dam", "pp rst 2")</t>
+  </si>
+  <si>
+    <t>Work that was done during visit to trap. Levels = c("continue trapping", "start trap &amp; begin trapping", "end trapping", "unplanned restart", "not applicable (n/a)", "service/adjust/clean trap", NA, "start trapping", "not recorded")</t>
+  </si>
+  <si>
+    <t>Describing if fish processed during trap visit. Levels = c("processed fish", "n/a; not a sampling visit", "no fish were caught",  "no catch data; fish released", NA, "not recorded")</t>
+  </si>
+  <si>
+    <t>Description of how well trap is functioning when visit to trap began. Levels = c("trap functioning normally", "trap functioning, but not normally", "trap not in service", "trap stopped functioning", "not recorded", NA)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,7 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -671,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -747,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -785,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -843,10 +835,10 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="18">
-        <v>42311.413738425923</v>
+        <v>35034.375</v>
       </c>
       <c r="M6" s="18">
-        <v>44742.417013888888</v>
+        <v>44929.489618055559</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -867,7 +859,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -904,8 +896,8 @@
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>64</v>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -943,7 +935,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -1104,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>6</v>
+        <v>3624</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1125,7 +1117,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1152,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>6.5</v>
+        <v>3624</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1173,7 +1165,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1211,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1403,7 +1395,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>32</v>
